--- a/doc/BoM.xlsx
+++ b/doc/BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-stuff\GMWPY_UPB2023\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25793F51-80D9-4571-BBA7-72CDEE012A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B12E8-D183-4C5F-BE09-C96BFFF329A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>MOUSER part No</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t xml:space="preserve">579-MCP3422A0-E/SN </t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>CH4 sensor</t>
   </si>
 </sst>
 </file>
@@ -436,11 +442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,73 +536,82 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.44</v>
+      </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>0.44</v>
+        <v>0.73</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>0.73</v>
+        <v>3.1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>3.1</v>
+        <v>0.52</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>0.52</v>
+        <v>3.7</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -605,12 +620,12 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>3.7</v>
@@ -624,29 +639,48 @@
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="F20" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3546297</v>
+      </c>
+      <c r="B16" s="1">
+        <v>96</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1654684</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F19" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/doc/BoM.xlsx
+++ b/doc/BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-stuff\GMWPY_UPB2023\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B12E8-D183-4C5F-BE09-C96BFFF329A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74C69E-8DB1-4FFC-8707-78B987A04082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>MOUSER part No</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>CH4 sensor</t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PCB+ pasive</t>
+  </si>
+  <si>
+    <t>remember that we can assemble 2 or 5 pieces with or without the MCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262-BME280 </t>
+  </si>
+  <si>
+    <t>temp press hum sensor</t>
   </si>
 </sst>
 </file>
@@ -442,11 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,6 +661,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
@@ -679,8 +714,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="F19" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F24" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/doc/BoM.xlsx
+++ b/doc/BoM.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-stuff\GMWPY_UPB2023\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74C69E-8DB1-4FFC-8707-78B987A04082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEA0591-3E7A-49BF-9B81-0E19286B8E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>MOUSER part No</t>
   </si>
@@ -133,6 +144,15 @@
   </si>
   <si>
     <t>temp press hum sensor</t>
+  </si>
+  <si>
+    <t>sensors</t>
+  </si>
+  <si>
+    <t>te other parts</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -460,24 +480,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,11 +510,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -504,11 +524,18 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2*D2</f>
+        <v>90.5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -518,11 +545,18 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E12" si="0">B3*D3</f>
+        <v>158</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -535,11 +569,15 @@
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -549,11 +587,18 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -566,11 +611,15 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -583,14 +632,18 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.46</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -603,11 +656,15 @@
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -620,11 +677,15 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -637,11 +698,15 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -654,14 +719,18 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -674,16 +743,20 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3546297</v>
       </c>
@@ -693,11 +766,11 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1654684</v>
       </c>
@@ -710,21 +783,25 @@
       <c r="D17" s="1">
         <v>10</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1">
+        <f>B17*D17</f>
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1">
-        <v>20</v>
+        <v>39.5</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -732,16 +809,47 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1">
+        <f>B22*D22</f>
+        <v>39.5</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="F24" s="2" t="s">
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="G24" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B16+B3</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1">
+        <f>SUM(E4:E12) +E17+E22</f>
+        <v>92.199999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <f>SUM(B25:B26)</f>
+        <v>346.2</v>
       </c>
     </row>
   </sheetData>
